--- a/finaljmui/jmuiTouch.xlsx
+++ b/finaljmui/jmuiTouch.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justy\Documents\PythonScripts\jmui\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justy\Documents\PythonScripts\jmui\finaljmui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA41BEC-4511-4EC5-B9F5-03C2C8B9453B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF073C8-F40B-477C-BF48-93AD7AE9E0D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -499,8 +499,8 @@
   <dimension ref="A1:S399"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/finaljmui/jmuiTouch.xlsx
+++ b/finaljmui/jmuiTouch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justy\Documents\PythonScripts\jmui\finaljmui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF073C8-F40B-477C-BF48-93AD7AE9E0D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B628D84-62F3-4945-944B-24D7007AEDB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -499,8 +499,8 @@
   <dimension ref="A1:S399"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/finaljmui/jmuiTouch.xlsx
+++ b/finaljmui/jmuiTouch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justy\Documents\PythonScripts\jmui\finaljmui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B628D84-62F3-4945-944B-24D7007AEDB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29A638A-6691-4A71-95EF-471A68FE1650}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,7 +500,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -641,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -936,7 +936,7 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -995,7 +995,7 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1054,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1113,7 +1113,7 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1231,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1290,7 +1290,7 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1349,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1408,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1585,7 +1585,7 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1644,7 +1644,7 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1762,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1880,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1939,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1998,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2057,7 +2057,7 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2116,7 +2116,7 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2175,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2234,7 +2234,7 @@
         <v>1</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2352,7 +2352,7 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2470,7 +2470,7 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2588,7 +2588,7 @@
         <v>1</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2647,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37">
         <v>2</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -2765,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -2824,7 +2824,7 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40">
         <v>2</v>
@@ -2883,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41">
         <v>2</v>
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42">
         <v>2</v>
@@ -3001,7 +3001,7 @@
         <v>1</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -3060,7 +3060,7 @@
         <v>1</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44">
         <v>2</v>
@@ -3119,7 +3119,7 @@
         <v>1</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46">
         <v>2</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47">
         <v>2</v>
@@ -3296,7 +3296,7 @@
         <v>1</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48">
         <v>2</v>
@@ -3355,7 +3355,7 @@
         <v>1</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49">
         <v>2</v>
@@ -3414,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50">
         <v>2</v>
@@ -3473,7 +3473,7 @@
         <v>1</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51">
         <v>2</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E52">
         <v>2</v>
@@ -3591,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53">
         <v>2</v>
@@ -3650,7 +3650,7 @@
         <v>1</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E54">
         <v>2</v>
@@ -3709,7 +3709,7 @@
         <v>1</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E55">
         <v>2</v>
@@ -3768,7 +3768,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E56">
         <v>2</v>
@@ -3827,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E57">
         <v>2</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E58">
         <v>2</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E59">
         <v>2</v>
@@ -4004,7 +4004,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E60">
         <v>2</v>
@@ -4063,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E61">
         <v>2</v>
@@ -4122,7 +4122,7 @@
         <v>1</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E62">
         <v>2</v>
@@ -4181,7 +4181,7 @@
         <v>1</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E63">
         <v>2</v>
@@ -4240,7 +4240,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E64">
         <v>2</v>
@@ -4299,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E65">
         <v>2</v>
@@ -4358,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E66">
         <v>2</v>
@@ -4417,7 +4417,7 @@
         <v>1</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67">
         <v>2</v>
@@ -4476,7 +4476,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E68">
         <v>2</v>
@@ -4535,7 +4535,7 @@
         <v>1</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E69">
         <v>2</v>
@@ -4594,7 +4594,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E70">
         <v>2</v>
@@ -4653,7 +4653,7 @@
         <v>1</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E71">
         <v>2</v>
@@ -4712,7 +4712,7 @@
         <v>1</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -4771,7 +4771,7 @@
         <v>1</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -4889,7 +4889,7 @@
         <v>1</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -4948,7 +4948,7 @@
         <v>1</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -5007,7 +5007,7 @@
         <v>1</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -5066,7 +5066,7 @@
         <v>1</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -5125,7 +5125,7 @@
         <v>1</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -5184,7 +5184,7 @@
         <v>1</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -5243,7 +5243,7 @@
         <v>1</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -5302,7 +5302,7 @@
         <v>1</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -5361,7 +5361,7 @@
         <v>1</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>1</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -5479,7 +5479,7 @@
         <v>1</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -5538,7 +5538,7 @@
         <v>1</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -5597,7 +5597,7 @@
         <v>1</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -5656,7 +5656,7 @@
         <v>1</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -5715,7 +5715,7 @@
         <v>1</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -5774,7 +5774,7 @@
         <v>1</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -5833,7 +5833,7 @@
         <v>1</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -5892,7 +5892,7 @@
         <v>1</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -5951,7 +5951,7 @@
         <v>1</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -6010,7 +6010,7 @@
         <v>1</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -6069,7 +6069,7 @@
         <v>1</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -6128,7 +6128,7 @@
         <v>1</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -6187,7 +6187,7 @@
         <v>1</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -6246,7 +6246,7 @@
         <v>1</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -6305,7 +6305,7 @@
         <v>1</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -6364,7 +6364,7 @@
         <v>1</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -6423,7 +6423,7 @@
         <v>1</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -6482,7 +6482,7 @@
         <v>1</v>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -6541,7 +6541,7 @@
         <v>1</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -6600,7 +6600,7 @@
         <v>1</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -6659,7 +6659,7 @@
         <v>1</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -6718,7 +6718,7 @@
         <v>1</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -6777,7 +6777,7 @@
         <v>1</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -6836,7 +6836,7 @@
         <v>1</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -6895,7 +6895,7 @@
         <v>1</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -6954,7 +6954,7 @@
         <v>1</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -7013,7 +7013,7 @@
         <v>1</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -7072,7 +7072,7 @@
         <v>1</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -9550,7 +9550,7 @@
         <v>1</v>
       </c>
       <c r="D154">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -9609,7 +9609,7 @@
         <v>1</v>
       </c>
       <c r="D155">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -9668,7 +9668,7 @@
         <v>1</v>
       </c>
       <c r="D156">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -9727,7 +9727,7 @@
         <v>1</v>
       </c>
       <c r="D157">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -9786,7 +9786,7 @@
         <v>1</v>
       </c>
       <c r="D158">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -9845,7 +9845,7 @@
         <v>1</v>
       </c>
       <c r="D159">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -9904,7 +9904,7 @@
         <v>1</v>
       </c>
       <c r="D160">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E160">
         <v>0</v>
@@ -9963,7 +9963,7 @@
         <v>1</v>
       </c>
       <c r="D161">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E161">
         <v>0</v>
@@ -10022,7 +10022,7 @@
         <v>1</v>
       </c>
       <c r="D162">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E162">
         <v>0</v>
@@ -10081,7 +10081,7 @@
         <v>1</v>
       </c>
       <c r="D163">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E163">
         <v>0</v>
@@ -10140,7 +10140,7 @@
         <v>1</v>
       </c>
       <c r="D164">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E164">
         <v>0</v>
@@ -10199,7 +10199,7 @@
         <v>1</v>
       </c>
       <c r="D165">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E165">
         <v>0</v>
@@ -10258,7 +10258,7 @@
         <v>1</v>
       </c>
       <c r="D166">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E166">
         <v>0</v>
@@ -10317,7 +10317,7 @@
         <v>1</v>
       </c>
       <c r="D167">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E167">
         <v>0</v>
@@ -10376,7 +10376,7 @@
         <v>1</v>
       </c>
       <c r="D168">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E168">
         <v>0</v>
@@ -10435,7 +10435,7 @@
         <v>1</v>
       </c>
       <c r="D169">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E169">
         <v>0</v>
@@ -10494,7 +10494,7 @@
         <v>1</v>
       </c>
       <c r="D170">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E170">
         <v>0</v>
@@ -10553,7 +10553,7 @@
         <v>1</v>
       </c>
       <c r="D171">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E171">
         <v>0</v>
@@ -10612,7 +10612,7 @@
         <v>1</v>
       </c>
       <c r="D172">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E172">
         <v>0</v>
@@ -10671,7 +10671,7 @@
         <v>1</v>
       </c>
       <c r="D173">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -10730,7 +10730,7 @@
         <v>1</v>
       </c>
       <c r="D174">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E174">
         <v>0</v>
@@ -10789,7 +10789,7 @@
         <v>1</v>
       </c>
       <c r="D175">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E175">
         <v>0</v>
@@ -10848,7 +10848,7 @@
         <v>1</v>
       </c>
       <c r="D176">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E176">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>1</v>
       </c>
       <c r="D177">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E177">
         <v>0</v>
@@ -10966,7 +10966,7 @@
         <v>1</v>
       </c>
       <c r="D178">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E178">
         <v>0</v>
@@ -11025,7 +11025,7 @@
         <v>1</v>
       </c>
       <c r="D179">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E179">
         <v>0</v>
@@ -11084,7 +11084,7 @@
         <v>1</v>
       </c>
       <c r="D180">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E180">
         <v>0</v>
@@ -11143,7 +11143,7 @@
         <v>1</v>
       </c>
       <c r="D181">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E181">
         <v>0</v>
@@ -11202,7 +11202,7 @@
         <v>1</v>
       </c>
       <c r="D182">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E182">
         <v>0</v>
@@ -11261,7 +11261,7 @@
         <v>1</v>
       </c>
       <c r="D183">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E183">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>1</v>
       </c>
       <c r="D184">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E184">
         <v>0</v>
@@ -11379,7 +11379,7 @@
         <v>1</v>
       </c>
       <c r="D185">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E185">
         <v>0</v>
@@ -11438,7 +11438,7 @@
         <v>1</v>
       </c>
       <c r="D186">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E186">
         <v>0</v>
@@ -11497,7 +11497,7 @@
         <v>1</v>
       </c>
       <c r="D187">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E187">
         <v>0</v>
@@ -11556,7 +11556,7 @@
         <v>1</v>
       </c>
       <c r="D188">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E188">
         <v>0</v>
@@ -11615,7 +11615,7 @@
         <v>1</v>
       </c>
       <c r="D189">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E189">
         <v>0</v>
@@ -11674,7 +11674,7 @@
         <v>1</v>
       </c>
       <c r="D190">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E190">
         <v>0</v>
@@ -11733,7 +11733,7 @@
         <v>1</v>
       </c>
       <c r="D191">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E191">
         <v>0</v>
@@ -11792,7 +11792,7 @@
         <v>1</v>
       </c>
       <c r="D192">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E192">
         <v>0</v>
@@ -11851,7 +11851,7 @@
         <v>1</v>
       </c>
       <c r="D193">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E193">
         <v>0</v>
@@ -11910,7 +11910,7 @@
         <v>1</v>
       </c>
       <c r="D194">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E194">
         <v>0</v>
@@ -11969,7 +11969,7 @@
         <v>1</v>
       </c>
       <c r="D195">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E195">
         <v>1</v>
@@ -12028,7 +12028,7 @@
         <v>1</v>
       </c>
       <c r="D196">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E196">
         <v>1</v>
@@ -12087,7 +12087,7 @@
         <v>1</v>
       </c>
       <c r="D197">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E197">
         <v>1</v>
@@ -12146,7 +12146,7 @@
         <v>1</v>
       </c>
       <c r="D198">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E198">
         <v>1</v>
@@ -12205,7 +12205,7 @@
         <v>1</v>
       </c>
       <c r="D199">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E199">
         <v>1</v>
@@ -12264,7 +12264,7 @@
         <v>1</v>
       </c>
       <c r="D200">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E200">
         <v>1</v>
@@ -12323,7 +12323,7 @@
         <v>1</v>
       </c>
       <c r="D201">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E201">
         <v>1</v>
@@ -12382,7 +12382,7 @@
         <v>1</v>
       </c>
       <c r="D202">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E202">
         <v>1</v>
@@ -12441,7 +12441,7 @@
         <v>1</v>
       </c>
       <c r="D203">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E203">
         <v>1</v>
@@ -12500,7 +12500,7 @@
         <v>1</v>
       </c>
       <c r="D204">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E204">
         <v>1</v>
@@ -12559,7 +12559,7 @@
         <v>1</v>
       </c>
       <c r="D205">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E205">
         <v>1</v>
@@ -12618,7 +12618,7 @@
         <v>1</v>
       </c>
       <c r="D206">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E206">
         <v>1</v>
@@ -12677,7 +12677,7 @@
         <v>1</v>
       </c>
       <c r="D207">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E207">
         <v>1</v>
@@ -12736,7 +12736,7 @@
         <v>1</v>
       </c>
       <c r="D208">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E208">
         <v>1</v>
@@ -12795,7 +12795,7 @@
         <v>1</v>
       </c>
       <c r="D209">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E209">
         <v>1</v>
@@ -12854,7 +12854,7 @@
         <v>1</v>
       </c>
       <c r="D210">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E210">
         <v>1</v>
@@ -12913,7 +12913,7 @@
         <v>1</v>
       </c>
       <c r="D211">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E211">
         <v>1</v>
@@ -12972,7 +12972,7 @@
         <v>1</v>
       </c>
       <c r="D212">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E212">
         <v>1</v>
@@ -13031,7 +13031,7 @@
         <v>1</v>
       </c>
       <c r="D213">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E213">
         <v>1</v>
@@ -13090,7 +13090,7 @@
         <v>1</v>
       </c>
       <c r="D214">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E214">
         <v>1</v>
@@ -13149,7 +13149,7 @@
         <v>1</v>
       </c>
       <c r="D215">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E215">
         <v>1</v>
@@ -13208,7 +13208,7 @@
         <v>1</v>
       </c>
       <c r="D216">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E216">
         <v>1</v>
@@ -13267,7 +13267,7 @@
         <v>1</v>
       </c>
       <c r="D217">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E217">
         <v>1</v>
@@ -13326,7 +13326,7 @@
         <v>1</v>
       </c>
       <c r="D218">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E218">
         <v>1</v>
@@ -13385,7 +13385,7 @@
         <v>1</v>
       </c>
       <c r="D219">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E219">
         <v>1</v>
@@ -13444,7 +13444,7 @@
         <v>1</v>
       </c>
       <c r="D220">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E220">
         <v>1</v>
@@ -13503,7 +13503,7 @@
         <v>1</v>
       </c>
       <c r="D221">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E221">
         <v>1</v>
@@ -13562,7 +13562,7 @@
         <v>1</v>
       </c>
       <c r="D222">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E222">
         <v>1</v>
@@ -13621,7 +13621,7 @@
         <v>1</v>
       </c>
       <c r="D223">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E223">
         <v>1</v>
@@ -13680,7 +13680,7 @@
         <v>1</v>
       </c>
       <c r="D224">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E224">
         <v>1</v>
@@ -13739,7 +13739,7 @@
         <v>1</v>
       </c>
       <c r="D225">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E225">
         <v>1</v>
@@ -13798,7 +13798,7 @@
         <v>1</v>
       </c>
       <c r="D226">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E226">
         <v>1</v>
@@ -13857,7 +13857,7 @@
         <v>1</v>
       </c>
       <c r="D227">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E227">
         <v>1</v>
@@ -13916,7 +13916,7 @@
         <v>1</v>
       </c>
       <c r="D228">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E228">
         <v>1</v>
@@ -13975,7 +13975,7 @@
         <v>1</v>
       </c>
       <c r="D229">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E229">
         <v>1</v>
@@ -14034,7 +14034,7 @@
         <v>1</v>
       </c>
       <c r="D230">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E230">
         <v>1</v>
@@ -14093,7 +14093,7 @@
         <v>1</v>
       </c>
       <c r="D231">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E231">
         <v>1</v>
@@ -14152,7 +14152,7 @@
         <v>1</v>
       </c>
       <c r="D232">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E232">
         <v>1</v>
@@ -14211,7 +14211,7 @@
         <v>1</v>
       </c>
       <c r="D233">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E233">
         <v>1</v>
@@ -14270,7 +14270,7 @@
         <v>1</v>
       </c>
       <c r="D234">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E234">
         <v>1</v>
@@ -14329,7 +14329,7 @@
         <v>1</v>
       </c>
       <c r="D235">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E235">
         <v>1</v>
@@ -14388,7 +14388,7 @@
         <v>1</v>
       </c>
       <c r="D236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E236">
         <v>0</v>
@@ -14447,7 +14447,7 @@
         <v>1</v>
       </c>
       <c r="D237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E237">
         <v>0</v>
@@ -14506,7 +14506,7 @@
         <v>1</v>
       </c>
       <c r="D238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E238">
         <v>0</v>
@@ -14565,7 +14565,7 @@
         <v>1</v>
       </c>
       <c r="D239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E239">
         <v>0</v>
@@ -14624,7 +14624,7 @@
         <v>1</v>
       </c>
       <c r="D240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E240">
         <v>0</v>
@@ -14683,7 +14683,7 @@
         <v>1</v>
       </c>
       <c r="D241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E241">
         <v>0</v>
@@ -14742,7 +14742,7 @@
         <v>1</v>
       </c>
       <c r="D242">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E242">
         <v>0</v>
@@ -14801,7 +14801,7 @@
         <v>1</v>
       </c>
       <c r="D243">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E243">
         <v>0</v>
@@ -14860,7 +14860,7 @@
         <v>1</v>
       </c>
       <c r="D244">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E244">
         <v>0</v>
@@ -14919,7 +14919,7 @@
         <v>1</v>
       </c>
       <c r="D245">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E245">
         <v>0</v>
@@ -14978,7 +14978,7 @@
         <v>1</v>
       </c>
       <c r="D246">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E246">
         <v>0</v>
@@ -15037,7 +15037,7 @@
         <v>1</v>
       </c>
       <c r="D247">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E247">
         <v>0</v>
@@ -15096,7 +15096,7 @@
         <v>1</v>
       </c>
       <c r="D248">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E248">
         <v>0</v>
@@ -15155,7 +15155,7 @@
         <v>1</v>
       </c>
       <c r="D249">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E249">
         <v>0</v>
@@ -15214,7 +15214,7 @@
         <v>1</v>
       </c>
       <c r="D250">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E250">
         <v>0</v>
@@ -15273,7 +15273,7 @@
         <v>1</v>
       </c>
       <c r="D251">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E251">
         <v>0</v>
@@ -15332,7 +15332,7 @@
         <v>1</v>
       </c>
       <c r="D252">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E252">
         <v>0</v>
@@ -15391,7 +15391,7 @@
         <v>1</v>
       </c>
       <c r="D253">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E253">
         <v>0</v>
@@ -15450,7 +15450,7 @@
         <v>1</v>
       </c>
       <c r="D254">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E254">
         <v>0</v>
@@ -15509,7 +15509,7 @@
         <v>1</v>
       </c>
       <c r="D255">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E255">
         <v>0</v>
@@ -15568,7 +15568,7 @@
         <v>1</v>
       </c>
       <c r="D256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E256">
         <v>0</v>
@@ -15627,7 +15627,7 @@
         <v>1</v>
       </c>
       <c r="D257">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E257">
         <v>0</v>
@@ -15686,7 +15686,7 @@
         <v>1</v>
       </c>
       <c r="D258">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E258">
         <v>0</v>
@@ -15745,7 +15745,7 @@
         <v>1</v>
       </c>
       <c r="D259">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E259">
         <v>0</v>
@@ -15804,7 +15804,7 @@
         <v>1</v>
       </c>
       <c r="D260">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E260">
         <v>0</v>
@@ -15863,7 +15863,7 @@
         <v>1</v>
       </c>
       <c r="D261">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E261">
         <v>0</v>
@@ -15922,7 +15922,7 @@
         <v>1</v>
       </c>
       <c r="D262">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E262">
         <v>0</v>
@@ -15981,7 +15981,7 @@
         <v>1</v>
       </c>
       <c r="D263">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E263">
         <v>0</v>
@@ -16040,7 +16040,7 @@
         <v>1</v>
       </c>
       <c r="D264">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E264">
         <v>0</v>
@@ -16099,7 +16099,7 @@
         <v>1</v>
       </c>
       <c r="D265">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E265">
         <v>0</v>
@@ -16158,7 +16158,7 @@
         <v>1</v>
       </c>
       <c r="D266">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E266">
         <v>0</v>
@@ -16217,7 +16217,7 @@
         <v>1</v>
       </c>
       <c r="D267">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E267">
         <v>0</v>
@@ -16276,7 +16276,7 @@
         <v>1</v>
       </c>
       <c r="D268">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E268">
         <v>0</v>
@@ -16335,7 +16335,7 @@
         <v>1</v>
       </c>
       <c r="D269">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E269">
         <v>0</v>
@@ -16394,7 +16394,7 @@
         <v>1</v>
       </c>
       <c r="D270">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E270">
         <v>0</v>
@@ -16453,7 +16453,7 @@
         <v>1</v>
       </c>
       <c r="D271">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E271">
         <v>0</v>
@@ -16512,7 +16512,7 @@
         <v>1</v>
       </c>
       <c r="D272">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E272">
         <v>0</v>
@@ -16571,7 +16571,7 @@
         <v>1</v>
       </c>
       <c r="D273">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E273">
         <v>0</v>
@@ -16630,7 +16630,7 @@
         <v>1</v>
       </c>
       <c r="D274">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E274">
         <v>0</v>
@@ -16689,7 +16689,7 @@
         <v>1</v>
       </c>
       <c r="D275">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E275">
         <v>0</v>
@@ -16748,7 +16748,7 @@
         <v>1</v>
       </c>
       <c r="D276">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E276">
         <v>0</v>
@@ -16807,7 +16807,7 @@
         <v>1</v>
       </c>
       <c r="D277">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E277">
         <v>1</v>
@@ -16866,7 +16866,7 @@
         <v>1</v>
       </c>
       <c r="D278">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E278">
         <v>1</v>
@@ -16925,7 +16925,7 @@
         <v>1</v>
       </c>
       <c r="D279">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E279">
         <v>1</v>
@@ -16984,7 +16984,7 @@
         <v>1</v>
       </c>
       <c r="D280">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E280">
         <v>1</v>
@@ -17043,7 +17043,7 @@
         <v>1</v>
       </c>
       <c r="D281">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E281">
         <v>1</v>
@@ -17102,7 +17102,7 @@
         <v>1</v>
       </c>
       <c r="D282">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E282">
         <v>1</v>
@@ -17161,7 +17161,7 @@
         <v>1</v>
       </c>
       <c r="D283">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E283">
         <v>1</v>
@@ -17220,7 +17220,7 @@
         <v>1</v>
       </c>
       <c r="D284">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E284">
         <v>1</v>
@@ -17279,7 +17279,7 @@
         <v>1</v>
       </c>
       <c r="D285">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E285">
         <v>1</v>
@@ -17338,7 +17338,7 @@
         <v>1</v>
       </c>
       <c r="D286">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E286">
         <v>1</v>
@@ -17397,7 +17397,7 @@
         <v>1</v>
       </c>
       <c r="D287">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E287">
         <v>1</v>
@@ -17456,7 +17456,7 @@
         <v>1</v>
       </c>
       <c r="D288">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E288">
         <v>1</v>
@@ -17515,7 +17515,7 @@
         <v>1</v>
       </c>
       <c r="D289">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E289">
         <v>1</v>
@@ -17574,7 +17574,7 @@
         <v>1</v>
       </c>
       <c r="D290">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E290">
         <v>1</v>
@@ -17633,7 +17633,7 @@
         <v>1</v>
       </c>
       <c r="D291">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E291">
         <v>1</v>
@@ -17692,7 +17692,7 @@
         <v>1</v>
       </c>
       <c r="D292">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E292">
         <v>1</v>
@@ -17751,7 +17751,7 @@
         <v>1</v>
       </c>
       <c r="D293">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E293">
         <v>1</v>
@@ -17810,7 +17810,7 @@
         <v>1</v>
       </c>
       <c r="D294">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E294">
         <v>1</v>
@@ -17869,7 +17869,7 @@
         <v>1</v>
       </c>
       <c r="D295">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E295">
         <v>1</v>
@@ -17928,7 +17928,7 @@
         <v>1</v>
       </c>
       <c r="D296">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E296">
         <v>1</v>
@@ -17987,7 +17987,7 @@
         <v>1</v>
       </c>
       <c r="D297">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E297">
         <v>1</v>
@@ -18046,7 +18046,7 @@
         <v>1</v>
       </c>
       <c r="D298">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E298">
         <v>1</v>
@@ -18105,7 +18105,7 @@
         <v>1</v>
       </c>
       <c r="D299">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E299">
         <v>1</v>
@@ -18164,7 +18164,7 @@
         <v>1</v>
       </c>
       <c r="D300">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E300">
         <v>1</v>
@@ -18223,7 +18223,7 @@
         <v>1</v>
       </c>
       <c r="D301">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E301">
         <v>1</v>
@@ -18282,7 +18282,7 @@
         <v>1</v>
       </c>
       <c r="D302">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E302">
         <v>1</v>
@@ -18341,7 +18341,7 @@
         <v>1</v>
       </c>
       <c r="D303">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E303">
         <v>1</v>
@@ -18400,7 +18400,7 @@
         <v>1</v>
       </c>
       <c r="D304">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E304">
         <v>1</v>
@@ -18459,7 +18459,7 @@
         <v>1</v>
       </c>
       <c r="D305">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E305">
         <v>1</v>
@@ -18518,7 +18518,7 @@
         <v>1</v>
       </c>
       <c r="D306">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E306">
         <v>1</v>
@@ -18577,7 +18577,7 @@
         <v>1</v>
       </c>
       <c r="D307">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E307">
         <v>1</v>
@@ -18636,7 +18636,7 @@
         <v>1</v>
       </c>
       <c r="D308">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E308">
         <v>1</v>
@@ -18695,7 +18695,7 @@
         <v>1</v>
       </c>
       <c r="D309">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E309">
         <v>1</v>
@@ -18754,7 +18754,7 @@
         <v>1</v>
       </c>
       <c r="D310">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E310">
         <v>1</v>
@@ -18813,7 +18813,7 @@
         <v>1</v>
       </c>
       <c r="D311">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E311">
         <v>1</v>
@@ -18872,7 +18872,7 @@
         <v>1</v>
       </c>
       <c r="D312">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E312">
         <v>1</v>
@@ -18931,7 +18931,7 @@
         <v>1</v>
       </c>
       <c r="D313">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E313">
         <v>1</v>
@@ -18990,7 +18990,7 @@
         <v>1</v>
       </c>
       <c r="D314">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E314">
         <v>1</v>
@@ -19049,7 +19049,7 @@
         <v>1</v>
       </c>
       <c r="D315">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E315">
         <v>1</v>
@@ -19108,7 +19108,7 @@
         <v>1</v>
       </c>
       <c r="D316">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E316">
         <v>1</v>
@@ -19167,7 +19167,7 @@
         <v>1</v>
       </c>
       <c r="D317">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E317">
         <v>1</v>
@@ -19226,7 +19226,7 @@
         <v>1</v>
       </c>
       <c r="D318">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E318">
         <v>0</v>
@@ -19285,7 +19285,7 @@
         <v>1</v>
       </c>
       <c r="D319">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E319">
         <v>0</v>
@@ -19344,7 +19344,7 @@
         <v>1</v>
       </c>
       <c r="D320">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E320">
         <v>0</v>
@@ -19403,7 +19403,7 @@
         <v>1</v>
       </c>
       <c r="D321">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E321">
         <v>0</v>
@@ -19462,7 +19462,7 @@
         <v>1</v>
       </c>
       <c r="D322">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E322">
         <v>0</v>
@@ -19521,7 +19521,7 @@
         <v>1</v>
       </c>
       <c r="D323">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E323">
         <v>0</v>
@@ -19580,7 +19580,7 @@
         <v>1</v>
       </c>
       <c r="D324">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E324">
         <v>0</v>
@@ -19639,7 +19639,7 @@
         <v>1</v>
       </c>
       <c r="D325">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E325">
         <v>0</v>
@@ -19698,7 +19698,7 @@
         <v>1</v>
       </c>
       <c r="D326">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E326">
         <v>0</v>
@@ -19757,7 +19757,7 @@
         <v>1</v>
       </c>
       <c r="D327">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E327">
         <v>0</v>
@@ -19816,7 +19816,7 @@
         <v>1</v>
       </c>
       <c r="D328">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E328">
         <v>0</v>
@@ -19875,7 +19875,7 @@
         <v>1</v>
       </c>
       <c r="D329">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E329">
         <v>0</v>
@@ -19934,7 +19934,7 @@
         <v>1</v>
       </c>
       <c r="D330">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E330">
         <v>0</v>
@@ -19993,7 +19993,7 @@
         <v>1</v>
       </c>
       <c r="D331">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E331">
         <v>0</v>
@@ -20052,7 +20052,7 @@
         <v>1</v>
       </c>
       <c r="D332">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E332">
         <v>0</v>
@@ -20111,7 +20111,7 @@
         <v>1</v>
       </c>
       <c r="D333">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E333">
         <v>0</v>
@@ -20170,7 +20170,7 @@
         <v>1</v>
       </c>
       <c r="D334">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E334">
         <v>0</v>
@@ -20229,7 +20229,7 @@
         <v>1</v>
       </c>
       <c r="D335">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E335">
         <v>0</v>
@@ -20288,7 +20288,7 @@
         <v>1</v>
       </c>
       <c r="D336">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E336">
         <v>0</v>
@@ -20347,7 +20347,7 @@
         <v>1</v>
       </c>
       <c r="D337">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E337">
         <v>0</v>
@@ -20406,7 +20406,7 @@
         <v>1</v>
       </c>
       <c r="D338">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E338">
         <v>0</v>
@@ -20465,7 +20465,7 @@
         <v>1</v>
       </c>
       <c r="D339">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E339">
         <v>0</v>
@@ -20524,7 +20524,7 @@
         <v>1</v>
       </c>
       <c r="D340">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E340">
         <v>0</v>
@@ -20583,7 +20583,7 @@
         <v>1</v>
       </c>
       <c r="D341">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E341">
         <v>0</v>
@@ -20642,7 +20642,7 @@
         <v>1</v>
       </c>
       <c r="D342">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E342">
         <v>0</v>
@@ -20701,7 +20701,7 @@
         <v>1</v>
       </c>
       <c r="D343">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E343">
         <v>0</v>
@@ -20760,7 +20760,7 @@
         <v>1</v>
       </c>
       <c r="D344">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E344">
         <v>0</v>
@@ -20819,7 +20819,7 @@
         <v>1</v>
       </c>
       <c r="D345">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E345">
         <v>0</v>
@@ -20878,7 +20878,7 @@
         <v>1</v>
       </c>
       <c r="D346">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E346">
         <v>0</v>
@@ -20937,7 +20937,7 @@
         <v>1</v>
       </c>
       <c r="D347">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E347">
         <v>0</v>
@@ -20996,7 +20996,7 @@
         <v>1</v>
       </c>
       <c r="D348">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E348">
         <v>0</v>
@@ -21055,7 +21055,7 @@
         <v>1</v>
       </c>
       <c r="D349">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E349">
         <v>0</v>
@@ -21114,7 +21114,7 @@
         <v>1</v>
       </c>
       <c r="D350">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E350">
         <v>0</v>
@@ -21173,7 +21173,7 @@
         <v>1</v>
       </c>
       <c r="D351">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E351">
         <v>0</v>
@@ -21232,7 +21232,7 @@
         <v>1</v>
       </c>
       <c r="D352">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E352">
         <v>0</v>
@@ -21291,7 +21291,7 @@
         <v>1</v>
       </c>
       <c r="D353">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E353">
         <v>0</v>
@@ -21350,7 +21350,7 @@
         <v>1</v>
       </c>
       <c r="D354">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E354">
         <v>0</v>
@@ -21409,7 +21409,7 @@
         <v>1</v>
       </c>
       <c r="D355">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E355">
         <v>0</v>
@@ -21468,7 +21468,7 @@
         <v>1</v>
       </c>
       <c r="D356">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E356">
         <v>0</v>
@@ -21527,7 +21527,7 @@
         <v>1</v>
       </c>
       <c r="D357">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E357">
         <v>0</v>
@@ -21586,7 +21586,7 @@
         <v>1</v>
       </c>
       <c r="D358">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E358">
         <v>0</v>

--- a/finaljmui/jmuiTouch.xlsx
+++ b/finaljmui/jmuiTouch.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justy\Documents\PythonScripts\jmui\finaljmui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29A638A-6691-4A71-95EF-471A68FE1650}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2667F1FD-CEC8-411E-9C6E-07BCDD66370F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$399</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -496,11 +499,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:S399"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D277" sqref="D277:D399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,7 +575,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -582,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -630,7 +634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
@@ -641,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -689,7 +693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -700,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -748,7 +752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
@@ -759,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -807,7 +811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7</v>
       </c>
@@ -818,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -866,7 +870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8</v>
       </c>
@@ -877,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -925,7 +929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9</v>
       </c>
@@ -936,7 +940,7 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -984,7 +988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10</v>
       </c>
@@ -995,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1043,7 +1047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>11</v>
       </c>
@@ -1054,7 +1058,7 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1102,7 +1106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>12</v>
       </c>
@@ -1113,7 +1117,7 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1161,7 +1165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>13</v>
       </c>
@@ -1172,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1220,7 +1224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>14</v>
       </c>
@@ -1231,7 +1235,7 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1279,7 +1283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>15</v>
       </c>
@@ -1290,7 +1294,7 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1338,7 +1342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>16</v>
       </c>
@@ -1349,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1397,7 +1401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>17</v>
       </c>
@@ -1408,7 +1412,7 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1456,7 +1460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>18</v>
       </c>
@@ -1467,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1515,7 +1519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>19</v>
       </c>
@@ -1526,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1574,7 +1578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>20</v>
       </c>
@@ -1585,7 +1589,7 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1633,7 +1637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>21</v>
       </c>
@@ -1644,7 +1648,7 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1692,7 +1696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>22</v>
       </c>
@@ -1703,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1751,7 +1755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>23</v>
       </c>
@@ -1762,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1810,7 +1814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>24</v>
       </c>
@@ -1821,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1869,7 +1873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>25</v>
       </c>
@@ -1880,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1928,7 +1932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>27</v>
       </c>
@@ -1939,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1987,7 +1991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>28</v>
       </c>
@@ -1998,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2046,7 +2050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>29</v>
       </c>
@@ -2057,7 +2061,7 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2105,7 +2109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>30</v>
       </c>
@@ -2116,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2164,7 +2168,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>31</v>
       </c>
@@ -2175,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2223,7 +2227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>32</v>
       </c>
@@ -2234,7 +2238,7 @@
         <v>1</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2282,7 +2286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>33</v>
       </c>
@@ -2293,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2341,7 +2345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>34</v>
       </c>
@@ -2352,7 +2356,7 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2400,7 +2404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>35</v>
       </c>
@@ -2411,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2459,7 +2463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>36</v>
       </c>
@@ -2470,7 +2474,7 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2518,7 +2522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>37</v>
       </c>
@@ -2529,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2577,7 +2581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>38</v>
       </c>
@@ -2588,7 +2592,7 @@
         <v>1</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2636,7 +2640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
@@ -2647,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37">
         <v>2</v>
@@ -2695,7 +2699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>4</v>
       </c>
@@ -2706,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -2754,7 +2758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5</v>
       </c>
@@ -2765,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -2813,7 +2817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>6</v>
       </c>
@@ -2824,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E40">
         <v>2</v>
@@ -2872,7 +2876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>7</v>
       </c>
@@ -2883,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41">
         <v>2</v>
@@ -2931,7 +2935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>8</v>
       </c>
@@ -2942,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42">
         <v>2</v>
@@ -2990,7 +2994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>9</v>
       </c>
@@ -3001,7 +3005,7 @@
         <v>1</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -3049,7 +3053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>10</v>
       </c>
@@ -3060,7 +3064,7 @@
         <v>1</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44">
         <v>2</v>
@@ -3108,7 +3112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>11</v>
       </c>
@@ -3119,7 +3123,7 @@
         <v>1</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -3167,7 +3171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>12</v>
       </c>
@@ -3178,7 +3182,7 @@
         <v>1</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46">
         <v>2</v>
@@ -3226,7 +3230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>13</v>
       </c>
@@ -3237,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47">
         <v>2</v>
@@ -3285,7 +3289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>14</v>
       </c>
@@ -3296,7 +3300,7 @@
         <v>1</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E48">
         <v>2</v>
@@ -3344,7 +3348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>15</v>
       </c>
@@ -3355,7 +3359,7 @@
         <v>1</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E49">
         <v>2</v>
@@ -3403,7 +3407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>16</v>
       </c>
@@ -3414,7 +3418,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E50">
         <v>2</v>
@@ -3462,7 +3466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>17</v>
       </c>
@@ -3473,7 +3477,7 @@
         <v>1</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E51">
         <v>2</v>
@@ -3521,7 +3525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>18</v>
       </c>
@@ -3532,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52">
         <v>2</v>
@@ -3580,7 +3584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>19</v>
       </c>
@@ -3591,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E53">
         <v>2</v>
@@ -3639,7 +3643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>20</v>
       </c>
@@ -3650,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E54">
         <v>2</v>
@@ -3698,7 +3702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>21</v>
       </c>
@@ -3709,7 +3713,7 @@
         <v>1</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E55">
         <v>2</v>
@@ -3757,7 +3761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>22</v>
       </c>
@@ -3768,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E56">
         <v>2</v>
@@ -3816,7 +3820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>23</v>
       </c>
@@ -3827,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E57">
         <v>2</v>
@@ -3875,7 +3879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>24</v>
       </c>
@@ -3886,7 +3890,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E58">
         <v>2</v>
@@ -3934,7 +3938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>25</v>
       </c>
@@ -3945,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E59">
         <v>2</v>
@@ -3993,7 +3997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>27</v>
       </c>
@@ -4004,7 +4008,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E60">
         <v>2</v>
@@ -4052,7 +4056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>28</v>
       </c>
@@ -4063,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E61">
         <v>2</v>
@@ -4111,7 +4115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>29</v>
       </c>
@@ -4122,7 +4126,7 @@
         <v>1</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E62">
         <v>2</v>
@@ -4170,7 +4174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>30</v>
       </c>
@@ -4181,7 +4185,7 @@
         <v>1</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E63">
         <v>2</v>
@@ -4229,7 +4233,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>31</v>
       </c>
@@ -4240,7 +4244,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E64">
         <v>2</v>
@@ -4288,7 +4292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>32</v>
       </c>
@@ -4299,7 +4303,7 @@
         <v>1</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E65">
         <v>2</v>
@@ -4347,7 +4351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>33</v>
       </c>
@@ -4358,7 +4362,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E66">
         <v>2</v>
@@ -4406,7 +4410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>34</v>
       </c>
@@ -4417,7 +4421,7 @@
         <v>1</v>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E67">
         <v>2</v>
@@ -4465,7 +4469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>35</v>
       </c>
@@ -4476,7 +4480,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E68">
         <v>2</v>
@@ -4524,7 +4528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>36</v>
       </c>
@@ -4535,7 +4539,7 @@
         <v>1</v>
       </c>
       <c r="D69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E69">
         <v>2</v>
@@ -4583,7 +4587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>37</v>
       </c>
@@ -4594,7 +4598,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E70">
         <v>2</v>
@@ -4642,7 +4646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>38</v>
       </c>
@@ -4653,7 +4657,7 @@
         <v>1</v>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E71">
         <v>2</v>
@@ -4712,7 +4716,7 @@
         <v>1</v>
       </c>
       <c r="D72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -4771,7 +4775,7 @@
         <v>1</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -4830,7 +4834,7 @@
         <v>1</v>
       </c>
       <c r="D74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -4889,7 +4893,7 @@
         <v>1</v>
       </c>
       <c r="D75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -4948,7 +4952,7 @@
         <v>1</v>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -5007,7 +5011,7 @@
         <v>1</v>
       </c>
       <c r="D77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -5066,7 +5070,7 @@
         <v>1</v>
       </c>
       <c r="D78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -5125,7 +5129,7 @@
         <v>1</v>
       </c>
       <c r="D79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -5184,7 +5188,7 @@
         <v>1</v>
       </c>
       <c r="D80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -5243,7 +5247,7 @@
         <v>1</v>
       </c>
       <c r="D81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -5302,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="D82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -5361,7 +5365,7 @@
         <v>1</v>
       </c>
       <c r="D83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -5420,7 +5424,7 @@
         <v>1</v>
       </c>
       <c r="D84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -5479,7 +5483,7 @@
         <v>1</v>
       </c>
       <c r="D85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -5538,7 +5542,7 @@
         <v>1</v>
       </c>
       <c r="D86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -5597,7 +5601,7 @@
         <v>1</v>
       </c>
       <c r="D87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -5656,7 +5660,7 @@
         <v>1</v>
       </c>
       <c r="D88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -5715,7 +5719,7 @@
         <v>1</v>
       </c>
       <c r="D89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -5774,7 +5778,7 @@
         <v>1</v>
       </c>
       <c r="D90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -5833,7 +5837,7 @@
         <v>1</v>
       </c>
       <c r="D91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -5892,7 +5896,7 @@
         <v>1</v>
       </c>
       <c r="D92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -5951,7 +5955,7 @@
         <v>1</v>
       </c>
       <c r="D93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -6010,7 +6014,7 @@
         <v>1</v>
       </c>
       <c r="D94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -6069,7 +6073,7 @@
         <v>1</v>
       </c>
       <c r="D95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -6128,7 +6132,7 @@
         <v>1</v>
       </c>
       <c r="D96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -6187,7 +6191,7 @@
         <v>1</v>
       </c>
       <c r="D97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -6246,7 +6250,7 @@
         <v>1</v>
       </c>
       <c r="D98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -6305,7 +6309,7 @@
         <v>1</v>
       </c>
       <c r="D99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -6364,7 +6368,7 @@
         <v>1</v>
       </c>
       <c r="D100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -6423,7 +6427,7 @@
         <v>1</v>
       </c>
       <c r="D101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -6482,7 +6486,7 @@
         <v>1</v>
       </c>
       <c r="D102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -6541,7 +6545,7 @@
         <v>1</v>
       </c>
       <c r="D103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -6600,7 +6604,7 @@
         <v>1</v>
       </c>
       <c r="D104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -6659,7 +6663,7 @@
         <v>1</v>
       </c>
       <c r="D105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -6718,7 +6722,7 @@
         <v>1</v>
       </c>
       <c r="D106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -6777,7 +6781,7 @@
         <v>1</v>
       </c>
       <c r="D107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -6836,7 +6840,7 @@
         <v>1</v>
       </c>
       <c r="D108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -6895,7 +6899,7 @@
         <v>1</v>
       </c>
       <c r="D109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -6954,7 +6958,7 @@
         <v>1</v>
       </c>
       <c r="D110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -7013,7 +7017,7 @@
         <v>1</v>
       </c>
       <c r="D111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -7072,7 +7076,7 @@
         <v>1</v>
       </c>
       <c r="D112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -9550,7 +9554,7 @@
         <v>1</v>
       </c>
       <c r="D154">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -9609,7 +9613,7 @@
         <v>1</v>
       </c>
       <c r="D155">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -9668,7 +9672,7 @@
         <v>1</v>
       </c>
       <c r="D156">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -9727,7 +9731,7 @@
         <v>1</v>
       </c>
       <c r="D157">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -9786,7 +9790,7 @@
         <v>1</v>
       </c>
       <c r="D158">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -9845,7 +9849,7 @@
         <v>1</v>
       </c>
       <c r="D159">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -9904,7 +9908,7 @@
         <v>1</v>
       </c>
       <c r="D160">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E160">
         <v>0</v>
@@ -9963,7 +9967,7 @@
         <v>1</v>
       </c>
       <c r="D161">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E161">
         <v>0</v>
@@ -10022,7 +10026,7 @@
         <v>1</v>
       </c>
       <c r="D162">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E162">
         <v>0</v>
@@ -10081,7 +10085,7 @@
         <v>1</v>
       </c>
       <c r="D163">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E163">
         <v>0</v>
@@ -10140,7 +10144,7 @@
         <v>1</v>
       </c>
       <c r="D164">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E164">
         <v>0</v>
@@ -10199,7 +10203,7 @@
         <v>1</v>
       </c>
       <c r="D165">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E165">
         <v>0</v>
@@ -10258,7 +10262,7 @@
         <v>1</v>
       </c>
       <c r="D166">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E166">
         <v>0</v>
@@ -10317,7 +10321,7 @@
         <v>1</v>
       </c>
       <c r="D167">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E167">
         <v>0</v>
@@ -10376,7 +10380,7 @@
         <v>1</v>
       </c>
       <c r="D168">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E168">
         <v>0</v>
@@ -10435,7 +10439,7 @@
         <v>1</v>
       </c>
       <c r="D169">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E169">
         <v>0</v>
@@ -10494,7 +10498,7 @@
         <v>1</v>
       </c>
       <c r="D170">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E170">
         <v>0</v>
@@ -10553,7 +10557,7 @@
         <v>1</v>
       </c>
       <c r="D171">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E171">
         <v>0</v>
@@ -10612,7 +10616,7 @@
         <v>1</v>
       </c>
       <c r="D172">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E172">
         <v>0</v>
@@ -10671,7 +10675,7 @@
         <v>1</v>
       </c>
       <c r="D173">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -10730,7 +10734,7 @@
         <v>1</v>
       </c>
       <c r="D174">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E174">
         <v>0</v>
@@ -10789,7 +10793,7 @@
         <v>1</v>
       </c>
       <c r="D175">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E175">
         <v>0</v>
@@ -10848,7 +10852,7 @@
         <v>1</v>
       </c>
       <c r="D176">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E176">
         <v>0</v>
@@ -10907,7 +10911,7 @@
         <v>1</v>
       </c>
       <c r="D177">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E177">
         <v>0</v>
@@ -10966,7 +10970,7 @@
         <v>1</v>
       </c>
       <c r="D178">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E178">
         <v>0</v>
@@ -11025,7 +11029,7 @@
         <v>1</v>
       </c>
       <c r="D179">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E179">
         <v>0</v>
@@ -11084,7 +11088,7 @@
         <v>1</v>
       </c>
       <c r="D180">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E180">
         <v>0</v>
@@ -11143,7 +11147,7 @@
         <v>1</v>
       </c>
       <c r="D181">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E181">
         <v>0</v>
@@ -11202,7 +11206,7 @@
         <v>1</v>
       </c>
       <c r="D182">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E182">
         <v>0</v>
@@ -11261,7 +11265,7 @@
         <v>1</v>
       </c>
       <c r="D183">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E183">
         <v>0</v>
@@ -11320,7 +11324,7 @@
         <v>1</v>
       </c>
       <c r="D184">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E184">
         <v>0</v>
@@ -11379,7 +11383,7 @@
         <v>1</v>
       </c>
       <c r="D185">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E185">
         <v>0</v>
@@ -11438,7 +11442,7 @@
         <v>1</v>
       </c>
       <c r="D186">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E186">
         <v>0</v>
@@ -11497,7 +11501,7 @@
         <v>1</v>
       </c>
       <c r="D187">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E187">
         <v>0</v>
@@ -11556,7 +11560,7 @@
         <v>1</v>
       </c>
       <c r="D188">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E188">
         <v>0</v>
@@ -11615,7 +11619,7 @@
         <v>1</v>
       </c>
       <c r="D189">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E189">
         <v>0</v>
@@ -11674,7 +11678,7 @@
         <v>1</v>
       </c>
       <c r="D190">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E190">
         <v>0</v>
@@ -11733,7 +11737,7 @@
         <v>1</v>
       </c>
       <c r="D191">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E191">
         <v>0</v>
@@ -11792,7 +11796,7 @@
         <v>1</v>
       </c>
       <c r="D192">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E192">
         <v>0</v>
@@ -11851,7 +11855,7 @@
         <v>1</v>
       </c>
       <c r="D193">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E193">
         <v>0</v>
@@ -11910,7 +11914,7 @@
         <v>1</v>
       </c>
       <c r="D194">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E194">
         <v>0</v>
@@ -11969,7 +11973,7 @@
         <v>1</v>
       </c>
       <c r="D195">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E195">
         <v>1</v>
@@ -12028,7 +12032,7 @@
         <v>1</v>
       </c>
       <c r="D196">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E196">
         <v>1</v>
@@ -12087,7 +12091,7 @@
         <v>1</v>
       </c>
       <c r="D197">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E197">
         <v>1</v>
@@ -12146,7 +12150,7 @@
         <v>1</v>
       </c>
       <c r="D198">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E198">
         <v>1</v>
@@ -12205,7 +12209,7 @@
         <v>1</v>
       </c>
       <c r="D199">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E199">
         <v>1</v>
@@ -12264,7 +12268,7 @@
         <v>1</v>
       </c>
       <c r="D200">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E200">
         <v>1</v>
@@ -12323,7 +12327,7 @@
         <v>1</v>
       </c>
       <c r="D201">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E201">
         <v>1</v>
@@ -12382,7 +12386,7 @@
         <v>1</v>
       </c>
       <c r="D202">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E202">
         <v>1</v>
@@ -12441,7 +12445,7 @@
         <v>1</v>
       </c>
       <c r="D203">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E203">
         <v>1</v>
@@ -12500,7 +12504,7 @@
         <v>1</v>
       </c>
       <c r="D204">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E204">
         <v>1</v>
@@ -12559,7 +12563,7 @@
         <v>1</v>
       </c>
       <c r="D205">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E205">
         <v>1</v>
@@ -12618,7 +12622,7 @@
         <v>1</v>
       </c>
       <c r="D206">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E206">
         <v>1</v>
@@ -12677,7 +12681,7 @@
         <v>1</v>
       </c>
       <c r="D207">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E207">
         <v>1</v>
@@ -12736,7 +12740,7 @@
         <v>1</v>
       </c>
       <c r="D208">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E208">
         <v>1</v>
@@ -12795,7 +12799,7 @@
         <v>1</v>
       </c>
       <c r="D209">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E209">
         <v>1</v>
@@ -12854,7 +12858,7 @@
         <v>1</v>
       </c>
       <c r="D210">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E210">
         <v>1</v>
@@ -12913,7 +12917,7 @@
         <v>1</v>
       </c>
       <c r="D211">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E211">
         <v>1</v>
@@ -12972,7 +12976,7 @@
         <v>1</v>
       </c>
       <c r="D212">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E212">
         <v>1</v>
@@ -13031,7 +13035,7 @@
         <v>1</v>
       </c>
       <c r="D213">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E213">
         <v>1</v>
@@ -13090,7 +13094,7 @@
         <v>1</v>
       </c>
       <c r="D214">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E214">
         <v>1</v>
@@ -13149,7 +13153,7 @@
         <v>1</v>
       </c>
       <c r="D215">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E215">
         <v>1</v>
@@ -13208,7 +13212,7 @@
         <v>1</v>
       </c>
       <c r="D216">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E216">
         <v>1</v>
@@ -13267,7 +13271,7 @@
         <v>1</v>
       </c>
       <c r="D217">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E217">
         <v>1</v>
@@ -13326,7 +13330,7 @@
         <v>1</v>
       </c>
       <c r="D218">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E218">
         <v>1</v>
@@ -13385,7 +13389,7 @@
         <v>1</v>
       </c>
       <c r="D219">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E219">
         <v>1</v>
@@ -13444,7 +13448,7 @@
         <v>1</v>
       </c>
       <c r="D220">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E220">
         <v>1</v>
@@ -13503,7 +13507,7 @@
         <v>1</v>
       </c>
       <c r="D221">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E221">
         <v>1</v>
@@ -13562,7 +13566,7 @@
         <v>1</v>
       </c>
       <c r="D222">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E222">
         <v>1</v>
@@ -13621,7 +13625,7 @@
         <v>1</v>
       </c>
       <c r="D223">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E223">
         <v>1</v>
@@ -13680,7 +13684,7 @@
         <v>1</v>
       </c>
       <c r="D224">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E224">
         <v>1</v>
@@ -13739,7 +13743,7 @@
         <v>1</v>
       </c>
       <c r="D225">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E225">
         <v>1</v>
@@ -13798,7 +13802,7 @@
         <v>1</v>
       </c>
       <c r="D226">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E226">
         <v>1</v>
@@ -13857,7 +13861,7 @@
         <v>1</v>
       </c>
       <c r="D227">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E227">
         <v>1</v>
@@ -13916,7 +13920,7 @@
         <v>1</v>
       </c>
       <c r="D228">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E228">
         <v>1</v>
@@ -13975,7 +13979,7 @@
         <v>1</v>
       </c>
       <c r="D229">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E229">
         <v>1</v>
@@ -14034,7 +14038,7 @@
         <v>1</v>
       </c>
       <c r="D230">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E230">
         <v>1</v>
@@ -14093,7 +14097,7 @@
         <v>1</v>
       </c>
       <c r="D231">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E231">
         <v>1</v>
@@ -14152,7 +14156,7 @@
         <v>1</v>
       </c>
       <c r="D232">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E232">
         <v>1</v>
@@ -14211,7 +14215,7 @@
         <v>1</v>
       </c>
       <c r="D233">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E233">
         <v>1</v>
@@ -14270,7 +14274,7 @@
         <v>1</v>
       </c>
       <c r="D234">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E234">
         <v>1</v>
@@ -14329,7 +14333,7 @@
         <v>1</v>
       </c>
       <c r="D235">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E235">
         <v>1</v>
@@ -14388,7 +14392,7 @@
         <v>1</v>
       </c>
       <c r="D236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E236">
         <v>0</v>
@@ -14447,7 +14451,7 @@
         <v>1</v>
       </c>
       <c r="D237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E237">
         <v>0</v>
@@ -14506,7 +14510,7 @@
         <v>1</v>
       </c>
       <c r="D238">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E238">
         <v>0</v>
@@ -14565,7 +14569,7 @@
         <v>1</v>
       </c>
       <c r="D239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E239">
         <v>0</v>
@@ -14624,7 +14628,7 @@
         <v>1</v>
       </c>
       <c r="D240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E240">
         <v>0</v>
@@ -14683,7 +14687,7 @@
         <v>1</v>
       </c>
       <c r="D241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E241">
         <v>0</v>
@@ -14742,7 +14746,7 @@
         <v>1</v>
       </c>
       <c r="D242">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E242">
         <v>0</v>
@@ -14801,7 +14805,7 @@
         <v>1</v>
       </c>
       <c r="D243">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E243">
         <v>0</v>
@@ -14860,7 +14864,7 @@
         <v>1</v>
       </c>
       <c r="D244">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E244">
         <v>0</v>
@@ -14919,7 +14923,7 @@
         <v>1</v>
       </c>
       <c r="D245">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E245">
         <v>0</v>
@@ -14978,7 +14982,7 @@
         <v>1</v>
       </c>
       <c r="D246">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E246">
         <v>0</v>
@@ -15037,7 +15041,7 @@
         <v>1</v>
       </c>
       <c r="D247">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E247">
         <v>0</v>
@@ -15096,7 +15100,7 @@
         <v>1</v>
       </c>
       <c r="D248">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E248">
         <v>0</v>
@@ -15155,7 +15159,7 @@
         <v>1</v>
       </c>
       <c r="D249">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E249">
         <v>0</v>
@@ -15214,7 +15218,7 @@
         <v>1</v>
       </c>
       <c r="D250">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E250">
         <v>0</v>
@@ -15273,7 +15277,7 @@
         <v>1</v>
       </c>
       <c r="D251">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E251">
         <v>0</v>
@@ -15332,7 +15336,7 @@
         <v>1</v>
       </c>
       <c r="D252">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E252">
         <v>0</v>
@@ -15391,7 +15395,7 @@
         <v>1</v>
       </c>
       <c r="D253">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E253">
         <v>0</v>
@@ -15450,7 +15454,7 @@
         <v>1</v>
       </c>
       <c r="D254">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E254">
         <v>0</v>
@@ -15509,7 +15513,7 @@
         <v>1</v>
       </c>
       <c r="D255">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E255">
         <v>0</v>
@@ -15568,7 +15572,7 @@
         <v>1</v>
       </c>
       <c r="D256">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E256">
         <v>0</v>
@@ -15627,7 +15631,7 @@
         <v>1</v>
       </c>
       <c r="D257">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E257">
         <v>0</v>
@@ -15686,7 +15690,7 @@
         <v>1</v>
       </c>
       <c r="D258">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E258">
         <v>0</v>
@@ -15745,7 +15749,7 @@
         <v>1</v>
       </c>
       <c r="D259">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E259">
         <v>0</v>
@@ -15804,7 +15808,7 @@
         <v>1</v>
       </c>
       <c r="D260">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E260">
         <v>0</v>
@@ -15863,7 +15867,7 @@
         <v>1</v>
       </c>
       <c r="D261">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E261">
         <v>0</v>
@@ -15922,7 +15926,7 @@
         <v>1</v>
       </c>
       <c r="D262">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E262">
         <v>0</v>
@@ -15981,7 +15985,7 @@
         <v>1</v>
       </c>
       <c r="D263">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E263">
         <v>0</v>
@@ -16040,7 +16044,7 @@
         <v>1</v>
       </c>
       <c r="D264">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E264">
         <v>0</v>
@@ -16099,7 +16103,7 @@
         <v>1</v>
       </c>
       <c r="D265">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E265">
         <v>0</v>
@@ -16158,7 +16162,7 @@
         <v>1</v>
       </c>
       <c r="D266">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E266">
         <v>0</v>
@@ -16217,7 +16221,7 @@
         <v>1</v>
       </c>
       <c r="D267">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E267">
         <v>0</v>
@@ -16276,7 +16280,7 @@
         <v>1</v>
       </c>
       <c r="D268">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E268">
         <v>0</v>
@@ -16335,7 +16339,7 @@
         <v>1</v>
       </c>
       <c r="D269">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E269">
         <v>0</v>
@@ -16394,7 +16398,7 @@
         <v>1</v>
       </c>
       <c r="D270">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E270">
         <v>0</v>
@@ -16453,7 +16457,7 @@
         <v>1</v>
       </c>
       <c r="D271">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E271">
         <v>0</v>
@@ -16512,7 +16516,7 @@
         <v>1</v>
       </c>
       <c r="D272">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E272">
         <v>0</v>
@@ -16571,7 +16575,7 @@
         <v>1</v>
       </c>
       <c r="D273">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E273">
         <v>0</v>
@@ -16630,7 +16634,7 @@
         <v>1</v>
       </c>
       <c r="D274">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E274">
         <v>0</v>
@@ -16689,7 +16693,7 @@
         <v>1</v>
       </c>
       <c r="D275">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E275">
         <v>0</v>
@@ -16748,7 +16752,7 @@
         <v>1</v>
       </c>
       <c r="D276">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E276">
         <v>0</v>
@@ -16807,7 +16811,7 @@
         <v>1</v>
       </c>
       <c r="D277">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E277">
         <v>1</v>
@@ -16866,7 +16870,7 @@
         <v>1</v>
       </c>
       <c r="D278">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E278">
         <v>1</v>
@@ -16925,7 +16929,7 @@
         <v>1</v>
       </c>
       <c r="D279">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E279">
         <v>1</v>
@@ -16984,7 +16988,7 @@
         <v>1</v>
       </c>
       <c r="D280">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E280">
         <v>1</v>
@@ -17043,7 +17047,7 @@
         <v>1</v>
       </c>
       <c r="D281">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E281">
         <v>1</v>
@@ -17102,7 +17106,7 @@
         <v>1</v>
       </c>
       <c r="D282">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E282">
         <v>1</v>
@@ -17161,7 +17165,7 @@
         <v>1</v>
       </c>
       <c r="D283">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E283">
         <v>1</v>
@@ -17220,7 +17224,7 @@
         <v>1</v>
       </c>
       <c r="D284">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E284">
         <v>1</v>
@@ -17279,7 +17283,7 @@
         <v>1</v>
       </c>
       <c r="D285">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E285">
         <v>1</v>
@@ -17338,7 +17342,7 @@
         <v>1</v>
       </c>
       <c r="D286">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E286">
         <v>1</v>
@@ -17397,7 +17401,7 @@
         <v>1</v>
       </c>
       <c r="D287">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E287">
         <v>1</v>
@@ -17456,7 +17460,7 @@
         <v>1</v>
       </c>
       <c r="D288">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E288">
         <v>1</v>
@@ -17515,7 +17519,7 @@
         <v>1</v>
       </c>
       <c r="D289">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E289">
         <v>1</v>
@@ -17574,7 +17578,7 @@
         <v>1</v>
       </c>
       <c r="D290">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E290">
         <v>1</v>
@@ -17633,7 +17637,7 @@
         <v>1</v>
       </c>
       <c r="D291">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E291">
         <v>1</v>
@@ -17692,7 +17696,7 @@
         <v>1</v>
       </c>
       <c r="D292">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E292">
         <v>1</v>
@@ -17751,7 +17755,7 @@
         <v>1</v>
       </c>
       <c r="D293">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E293">
         <v>1</v>
@@ -17810,7 +17814,7 @@
         <v>1</v>
       </c>
       <c r="D294">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E294">
         <v>1</v>
@@ -17869,7 +17873,7 @@
         <v>1</v>
       </c>
       <c r="D295">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E295">
         <v>1</v>
@@ -17928,7 +17932,7 @@
         <v>1</v>
       </c>
       <c r="D296">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E296">
         <v>1</v>
@@ -17987,7 +17991,7 @@
         <v>1</v>
       </c>
       <c r="D297">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E297">
         <v>1</v>
@@ -18046,7 +18050,7 @@
         <v>1</v>
       </c>
       <c r="D298">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E298">
         <v>1</v>
@@ -18105,7 +18109,7 @@
         <v>1</v>
       </c>
       <c r="D299">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E299">
         <v>1</v>
@@ -18164,7 +18168,7 @@
         <v>1</v>
       </c>
       <c r="D300">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E300">
         <v>1</v>
@@ -18223,7 +18227,7 @@
         <v>1</v>
       </c>
       <c r="D301">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E301">
         <v>1</v>
@@ -18282,7 +18286,7 @@
         <v>1</v>
       </c>
       <c r="D302">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E302">
         <v>1</v>
@@ -18341,7 +18345,7 @@
         <v>1</v>
       </c>
       <c r="D303">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E303">
         <v>1</v>
@@ -18400,7 +18404,7 @@
         <v>1</v>
       </c>
       <c r="D304">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E304">
         <v>1</v>
@@ -18459,7 +18463,7 @@
         <v>1</v>
       </c>
       <c r="D305">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E305">
         <v>1</v>
@@ -18518,7 +18522,7 @@
         <v>1</v>
       </c>
       <c r="D306">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E306">
         <v>1</v>
@@ -18577,7 +18581,7 @@
         <v>1</v>
       </c>
       <c r="D307">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E307">
         <v>1</v>
@@ -18636,7 +18640,7 @@
         <v>1</v>
       </c>
       <c r="D308">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E308">
         <v>1</v>
@@ -18695,7 +18699,7 @@
         <v>1</v>
       </c>
       <c r="D309">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E309">
         <v>1</v>
@@ -18754,7 +18758,7 @@
         <v>1</v>
       </c>
       <c r="D310">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E310">
         <v>1</v>
@@ -18813,7 +18817,7 @@
         <v>1</v>
       </c>
       <c r="D311">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E311">
         <v>1</v>
@@ -18872,7 +18876,7 @@
         <v>1</v>
       </c>
       <c r="D312">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E312">
         <v>1</v>
@@ -18931,7 +18935,7 @@
         <v>1</v>
       </c>
       <c r="D313">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E313">
         <v>1</v>
@@ -18990,7 +18994,7 @@
         <v>1</v>
       </c>
       <c r="D314">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E314">
         <v>1</v>
@@ -19049,7 +19053,7 @@
         <v>1</v>
       </c>
       <c r="D315">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E315">
         <v>1</v>
@@ -19108,7 +19112,7 @@
         <v>1</v>
       </c>
       <c r="D316">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E316">
         <v>1</v>
@@ -19167,7 +19171,7 @@
         <v>1</v>
       </c>
       <c r="D317">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E317">
         <v>1</v>
@@ -19226,7 +19230,7 @@
         <v>1</v>
       </c>
       <c r="D318">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E318">
         <v>0</v>
@@ -19285,7 +19289,7 @@
         <v>1</v>
       </c>
       <c r="D319">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E319">
         <v>0</v>
@@ -19344,7 +19348,7 @@
         <v>1</v>
       </c>
       <c r="D320">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E320">
         <v>0</v>
@@ -19403,7 +19407,7 @@
         <v>1</v>
       </c>
       <c r="D321">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E321">
         <v>0</v>
@@ -19462,7 +19466,7 @@
         <v>1</v>
       </c>
       <c r="D322">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E322">
         <v>0</v>
@@ -19521,7 +19525,7 @@
         <v>1</v>
       </c>
       <c r="D323">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E323">
         <v>0</v>
@@ -19580,7 +19584,7 @@
         <v>1</v>
       </c>
       <c r="D324">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E324">
         <v>0</v>
@@ -19639,7 +19643,7 @@
         <v>1</v>
       </c>
       <c r="D325">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E325">
         <v>0</v>
@@ -19698,7 +19702,7 @@
         <v>1</v>
       </c>
       <c r="D326">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E326">
         <v>0</v>
@@ -19757,7 +19761,7 @@
         <v>1</v>
       </c>
       <c r="D327">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E327">
         <v>0</v>
@@ -19816,7 +19820,7 @@
         <v>1</v>
       </c>
       <c r="D328">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E328">
         <v>0</v>
@@ -19875,7 +19879,7 @@
         <v>1</v>
       </c>
       <c r="D329">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E329">
         <v>0</v>
@@ -19934,7 +19938,7 @@
         <v>1</v>
       </c>
       <c r="D330">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E330">
         <v>0</v>
@@ -19993,7 +19997,7 @@
         <v>1</v>
       </c>
       <c r="D331">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E331">
         <v>0</v>
@@ -20052,7 +20056,7 @@
         <v>1</v>
       </c>
       <c r="D332">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E332">
         <v>0</v>
@@ -20111,7 +20115,7 @@
         <v>1</v>
       </c>
       <c r="D333">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E333">
         <v>0</v>
@@ -20170,7 +20174,7 @@
         <v>1</v>
       </c>
       <c r="D334">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E334">
         <v>0</v>
@@ -20229,7 +20233,7 @@
         <v>1</v>
       </c>
       <c r="D335">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E335">
         <v>0</v>
@@ -20288,7 +20292,7 @@
         <v>1</v>
       </c>
       <c r="D336">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E336">
         <v>0</v>
@@ -20347,7 +20351,7 @@
         <v>1</v>
       </c>
       <c r="D337">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E337">
         <v>0</v>
@@ -20406,7 +20410,7 @@
         <v>1</v>
       </c>
       <c r="D338">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E338">
         <v>0</v>
@@ -20465,7 +20469,7 @@
         <v>1</v>
       </c>
       <c r="D339">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E339">
         <v>0</v>
@@ -20524,7 +20528,7 @@
         <v>1</v>
       </c>
       <c r="D340">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E340">
         <v>0</v>
@@ -20583,7 +20587,7 @@
         <v>1</v>
       </c>
       <c r="D341">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E341">
         <v>0</v>
@@ -20642,7 +20646,7 @@
         <v>1</v>
       </c>
       <c r="D342">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E342">
         <v>0</v>
@@ -20701,7 +20705,7 @@
         <v>1</v>
       </c>
       <c r="D343">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E343">
         <v>0</v>
@@ -20760,7 +20764,7 @@
         <v>1</v>
       </c>
       <c r="D344">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E344">
         <v>0</v>
@@ -20819,7 +20823,7 @@
         <v>1</v>
       </c>
       <c r="D345">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E345">
         <v>0</v>
@@ -20878,7 +20882,7 @@
         <v>1</v>
       </c>
       <c r="D346">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E346">
         <v>0</v>
@@ -20937,7 +20941,7 @@
         <v>1</v>
       </c>
       <c r="D347">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E347">
         <v>0</v>
@@ -20996,7 +21000,7 @@
         <v>1</v>
       </c>
       <c r="D348">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E348">
         <v>0</v>
@@ -21055,7 +21059,7 @@
         <v>1</v>
       </c>
       <c r="D349">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E349">
         <v>0</v>
@@ -21114,7 +21118,7 @@
         <v>1</v>
       </c>
       <c r="D350">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E350">
         <v>0</v>
@@ -21173,7 +21177,7 @@
         <v>1</v>
       </c>
       <c r="D351">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E351">
         <v>0</v>
@@ -21232,7 +21236,7 @@
         <v>1</v>
       </c>
       <c r="D352">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E352">
         <v>0</v>
@@ -21291,7 +21295,7 @@
         <v>1</v>
       </c>
       <c r="D353">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E353">
         <v>0</v>
@@ -21350,7 +21354,7 @@
         <v>1</v>
       </c>
       <c r="D354">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E354">
         <v>0</v>
@@ -21409,7 +21413,7 @@
         <v>1</v>
       </c>
       <c r="D355">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E355">
         <v>0</v>
@@ -21468,7 +21472,7 @@
         <v>1</v>
       </c>
       <c r="D356">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E356">
         <v>0</v>
@@ -21527,7 +21531,7 @@
         <v>1</v>
       </c>
       <c r="D357">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E357">
         <v>0</v>
@@ -21586,7 +21590,7 @@
         <v>1</v>
       </c>
       <c r="D358">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E358">
         <v>0</v>
@@ -24054,6 +24058,14 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:S399" xr:uid="{3BD8F4CA-97DD-4707-9DB0-A73DCCF86994}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="2"/>
+        <filter val="3"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/finaljmui/jmuiTouch.xlsx
+++ b/finaljmui/jmuiTouch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justy\Documents\PythonScripts\jmui\finaljmui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2667F1FD-CEC8-411E-9C6E-07BCDD66370F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6726BE-63AA-4EDC-9885-EB60E74CC2B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -499,12 +499,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:S399"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D277" sqref="D277:D399"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,7 +574,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -634,7 +633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
@@ -693,7 +692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -752,7 +751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
@@ -811,7 +810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7</v>
       </c>
@@ -870,7 +869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8</v>
       </c>
@@ -929,7 +928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9</v>
       </c>
@@ -988,7 +987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10</v>
       </c>
@@ -1047,7 +1046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>11</v>
       </c>
@@ -1106,7 +1105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>12</v>
       </c>
@@ -1165,7 +1164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>13</v>
       </c>
@@ -1224,7 +1223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>14</v>
       </c>
@@ -1283,7 +1282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>15</v>
       </c>
@@ -1342,7 +1341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>16</v>
       </c>
@@ -1401,7 +1400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>17</v>
       </c>
@@ -1460,7 +1459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>18</v>
       </c>
@@ -1519,7 +1518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>19</v>
       </c>
@@ -1578,7 +1577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>20</v>
       </c>
@@ -1637,7 +1636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>21</v>
       </c>
@@ -1696,7 +1695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>22</v>
       </c>
@@ -1755,7 +1754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>23</v>
       </c>
@@ -1814,7 +1813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>24</v>
       </c>
@@ -1873,7 +1872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>25</v>
       </c>
@@ -1932,7 +1931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>27</v>
       </c>
@@ -1991,7 +1990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>28</v>
       </c>
@@ -2050,7 +2049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>29</v>
       </c>
@@ -2109,7 +2108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>30</v>
       </c>
@@ -2168,7 +2167,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>31</v>
       </c>
@@ -2227,7 +2226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>32</v>
       </c>
@@ -2286,7 +2285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>33</v>
       </c>
@@ -2345,7 +2344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>34</v>
       </c>
@@ -2404,7 +2403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>35</v>
       </c>
@@ -2463,7 +2462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>36</v>
       </c>
@@ -2522,7 +2521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>37</v>
       </c>
@@ -2581,7 +2580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>38</v>
       </c>
@@ -2640,7 +2639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
@@ -2699,7 +2698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>4</v>
       </c>
@@ -2758,7 +2757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5</v>
       </c>
@@ -2817,7 +2816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>6</v>
       </c>
@@ -2876,7 +2875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>7</v>
       </c>
@@ -2935,7 +2934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>8</v>
       </c>
@@ -2994,7 +2993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>9</v>
       </c>
@@ -3053,7 +3052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>10</v>
       </c>
@@ -3112,7 +3111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>11</v>
       </c>
@@ -3171,7 +3170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>12</v>
       </c>
@@ -3230,7 +3229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>13</v>
       </c>
@@ -3289,7 +3288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>14</v>
       </c>
@@ -3348,7 +3347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>15</v>
       </c>
@@ -3407,7 +3406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>16</v>
       </c>
@@ -3466,7 +3465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>17</v>
       </c>
@@ -3525,7 +3524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>18</v>
       </c>
@@ -3584,7 +3583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>19</v>
       </c>
@@ -3643,7 +3642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>20</v>
       </c>
@@ -3702,7 +3701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>21</v>
       </c>
@@ -3761,7 +3760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>22</v>
       </c>
@@ -3820,7 +3819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>23</v>
       </c>
@@ -3879,7 +3878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>24</v>
       </c>
@@ -3938,7 +3937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>25</v>
       </c>
@@ -3997,7 +3996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>27</v>
       </c>
@@ -4056,7 +4055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>28</v>
       </c>
@@ -4115,7 +4114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>29</v>
       </c>
@@ -4174,7 +4173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>30</v>
       </c>
@@ -4233,7 +4232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>31</v>
       </c>
@@ -4292,7 +4291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>32</v>
       </c>
@@ -4351,7 +4350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>33</v>
       </c>
@@ -4410,7 +4409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>34</v>
       </c>
@@ -4469,7 +4468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>35</v>
       </c>
@@ -4528,7 +4527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>36</v>
       </c>
@@ -4587,7 +4586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>37</v>
       </c>
@@ -4646,7 +4645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>38</v>
       </c>
@@ -24058,14 +24057,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S399" xr:uid="{3BD8F4CA-97DD-4707-9DB0-A73DCCF86994}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="2"/>
-        <filter val="3"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:S399" xr:uid="{3BD8F4CA-97DD-4707-9DB0-A73DCCF86994}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>